--- a/Ecosystem carbon/03Dead_wood.xlsx
+++ b/Ecosystem carbon/03Dead_wood.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vildehaukenes/Google Drive/Skole/Master biologi /Masteroppgave /01Data /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vildehaukenes/Documents/GitHub/AfricanBioServices-Vegetation-and-soils/Ecosystem carbon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02561F64-31E9-3040-9915-FB3751BB0544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B56EBE-4EE0-CF41-98AD-703F1A399AB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{716DC36D-EB2A-F446-B3CA-1C62EECAEA3E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{716DC36D-EB2A-F446-B3CA-1C62EECAEA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="247">
   <si>
     <t>ID</t>
   </si>
@@ -741,9 +741,6 @@
     <t>Length.cm</t>
   </si>
   <si>
-    <t>Width.cm</t>
-  </si>
-  <si>
     <t>Debris_type</t>
   </si>
   <si>
@@ -763,6 +760,12 @@
   </si>
   <si>
     <t>CDW</t>
+  </si>
+  <si>
+    <t>Diameter.cm</t>
+  </si>
+  <si>
+    <t>Carbon</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1186,7 @@
   <dimension ref="A1:O203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G213" sqref="G213"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,7 +1204,7 @@
     <col min="13" max="14" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,22 +1233,25 @@
         <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>237</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>33</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K2" s="5">
         <v>22.1</v>
@@ -1289,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>33</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K3" s="5">
         <v>7.5</v>
@@ -1333,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K4" s="5">
         <v>9</v>
@@ -1377,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>35</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K5" s="5">
         <v>26</v>
@@ -1421,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>35</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K6" s="5">
         <v>25.7</v>
@@ -1465,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>37</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K7" s="5">
         <v>28.6</v>
@@ -1509,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>37</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K8" s="5">
         <v>30.4</v>
@@ -1553,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>37</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K9" s="5">
         <v>22.7</v>
@@ -1597,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K10" s="5">
         <v>12.6</v>
@@ -1641,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K11" s="5">
         <v>35.9</v>
@@ -1685,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>37</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K12" s="5">
         <v>28.1</v>
@@ -1729,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>37</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K13" s="5">
         <v>23.1</v>
@@ -1773,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K14" s="5">
         <v>13.7</v>
@@ -1817,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K15" s="5">
         <v>12.3</v>
@@ -1861,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>37</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K16" s="5">
         <v>13.8</v>
@@ -1934,7 +1940,7 @@
         <v>38</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K17" s="5">
         <v>26.2</v>
@@ -1978,7 +1984,7 @@
         <v>38</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K18" s="5">
         <v>33.5</v>
@@ -2022,7 +2028,7 @@
         <v>38</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K19" s="5">
         <v>26.7</v>
@@ -2066,7 +2072,7 @@
         <v>38</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K20" s="5">
         <v>9</v>
@@ -2110,7 +2116,7 @@
         <v>38</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K21" s="5">
         <v>17.399999999999999</v>
@@ -2154,7 +2160,7 @@
         <v>38</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K22" s="5">
         <v>17.5</v>
@@ -2198,7 +2204,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K23" s="5">
         <v>14.4</v>
@@ -2242,7 +2248,7 @@
         <v>38</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K24" s="5">
         <v>27</v>
@@ -2286,7 +2292,7 @@
         <v>38</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K25" s="5">
         <v>21.7</v>
@@ -2330,7 +2336,7 @@
         <v>40</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K26" s="5">
         <v>15.6</v>
@@ -2374,7 +2380,7 @@
         <v>40</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K27" s="5">
         <v>25.1</v>
@@ -2418,7 +2424,7 @@
         <v>40</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K28" s="5">
         <v>70.7</v>
@@ -2462,7 +2468,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K29" s="5">
         <v>63.8</v>
@@ -2506,7 +2512,7 @@
         <v>40</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K30" s="5">
         <v>23</v>
@@ -2550,7 +2556,7 @@
         <v>40</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K31" s="5">
         <v>13.2</v>
@@ -2594,7 +2600,7 @@
         <v>40</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K32" s="5">
         <v>13.3</v>
@@ -2638,7 +2644,7 @@
         <v>40</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K33" s="5">
         <v>21.2</v>
@@ -2682,7 +2688,7 @@
         <v>40</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K34" s="5">
         <v>15.8</v>
@@ -2726,7 +2732,7 @@
         <v>40</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K35" s="5">
         <v>19</v>
@@ -2770,7 +2776,7 @@
         <v>40</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K36" s="5">
         <v>11.3</v>
@@ -2814,7 +2820,7 @@
         <v>42</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K37" s="5">
         <v>5.7</v>
@@ -2858,7 +2864,7 @@
         <v>44</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K38" s="5">
         <v>15.7</v>
@@ -2902,7 +2908,7 @@
         <v>44</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K39" s="5">
         <v>6.6</v>
@@ -2946,7 +2952,7 @@
         <v>44</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K40" s="5">
         <v>8.1</v>
@@ -2990,7 +2996,7 @@
         <v>46</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K41" s="5">
         <v>16.5</v>
@@ -3034,7 +3040,7 @@
         <v>46</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K42" s="5">
         <v>27.7</v>
@@ -3078,7 +3084,7 @@
         <v>46</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K43" s="5">
         <v>16.5</v>
@@ -3122,7 +3128,7 @@
         <v>48</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K44" s="5">
         <v>27</v>
@@ -3166,7 +3172,7 @@
         <v>48</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K45" s="5">
         <v>20.2</v>
@@ -3210,7 +3216,7 @@
         <v>50</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K46" s="5">
         <v>38.200000000000003</v>
@@ -3254,7 +3260,7 @@
         <v>50</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K47" s="5">
         <v>95.5</v>
@@ -3317,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K49" s="5">
         <v>16</v>
@@ -3349,7 +3355,7 @@
         <v>12</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K50" s="5">
         <v>9.6999999999999993</v>
@@ -3381,7 +3387,7 @@
         <v>12</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K51" s="5">
         <v>11.8</v>
@@ -3425,7 +3431,7 @@
         <v>54</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K52" s="5">
         <v>18.100000000000001</v>
@@ -3469,7 +3475,7 @@
         <v>54</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K53" s="5">
         <v>24.7</v>
@@ -3513,7 +3519,7 @@
         <v>54</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K54" s="5">
         <v>127</v>
@@ -3557,7 +3563,7 @@
         <v>54</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K55" s="5">
         <v>27.7</v>
@@ -3601,7 +3607,7 @@
         <v>56</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K56" s="5">
         <v>32</v>
@@ -3645,7 +3651,7 @@
         <v>56</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K57" s="5">
         <v>25</v>
@@ -3689,7 +3695,7 @@
         <v>56</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K58" s="5">
         <v>19</v>
@@ -3733,7 +3739,7 @@
         <v>58</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K59" s="5">
         <v>13</v>
@@ -3777,7 +3783,7 @@
         <v>58</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K60" s="5">
         <v>12.5</v>
@@ -3821,7 +3827,7 @@
         <v>58</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K61" s="5">
         <v>12</v>
@@ -3865,7 +3871,7 @@
         <v>54</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K62" s="5">
         <v>15</v>
@@ -3909,7 +3915,7 @@
         <v>54</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K63" s="5">
         <v>8.6</v>
@@ -3953,7 +3959,7 @@
         <v>54</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K64" s="5">
         <v>4.5</v>
@@ -3997,7 +4003,7 @@
         <v>54</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K65" s="5">
         <v>74</v>
@@ -4041,7 +4047,7 @@
         <v>61</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -4075,7 +4081,7 @@
         <v>63</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
@@ -4109,7 +4115,7 @@
         <v>65</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
@@ -4143,7 +4149,7 @@
         <v>67</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -4175,7 +4181,7 @@
         <v>69</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -4207,7 +4213,7 @@
         <v>71</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K71" s="14">
         <v>16.2</v>
@@ -4251,7 +4257,7 @@
         <v>71</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K72" s="14">
         <v>35.9</v>
@@ -4295,7 +4301,7 @@
         <v>72</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -4317,7 +4323,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="8"/>
       <c r="J74" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K74" s="14">
         <v>67.7</v>
@@ -4351,7 +4357,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="8"/>
       <c r="J75" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K75" s="14">
         <v>52</v>
@@ -4384,7 +4390,7 @@
       </c>
       <c r="G76" s="8"/>
       <c r="J76" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K76" s="14">
         <v>388</v>
@@ -4399,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="O76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -4431,7 +4437,7 @@
         <v>74</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K77" s="14">
         <v>36.700000000000003</v>
@@ -4475,7 +4481,7 @@
         <v>74</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K78" s="14">
         <v>11</v>
@@ -4519,7 +4525,7 @@
         <v>74</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K79" s="14">
         <v>89.6</v>
@@ -4563,7 +4569,7 @@
         <v>76</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K80" s="14">
         <v>189.9</v>
@@ -4607,7 +4613,7 @@
         <v>76</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K81" s="14">
         <v>74.599999999999994</v>
@@ -4651,7 +4657,7 @@
         <v>76</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K82" s="14">
         <v>68.2</v>
@@ -4695,7 +4701,7 @@
         <v>78</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -4727,7 +4733,7 @@
         <v>80</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4759,7 +4765,7 @@
         <v>82</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K85" s="14">
         <v>27.9</v>
@@ -4803,7 +4809,7 @@
         <v>82</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K86" s="14">
         <v>34.1</v>
@@ -4847,7 +4853,7 @@
         <v>82</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K87" s="14">
         <v>82.8</v>
@@ -4891,7 +4897,7 @@
         <v>84</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K88" s="14">
         <v>13.6</v>
@@ -4935,7 +4941,7 @@
         <v>84</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K89" s="14">
         <v>13.1</v>
@@ -4979,7 +4985,7 @@
         <v>84</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K90" s="14">
         <v>100.3</v>
@@ -5023,7 +5029,7 @@
         <v>87</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -5055,7 +5061,7 @@
         <v>89</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -5087,7 +5093,7 @@
         <v>91</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -5119,7 +5125,7 @@
         <v>93</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -5151,7 +5157,7 @@
         <v>89</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -5183,7 +5189,7 @@
         <v>96</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -5215,7 +5221,7 @@
         <v>98</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -5247,7 +5253,7 @@
         <v>100</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -5279,7 +5285,7 @@
         <v>102</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -5311,7 +5317,7 @@
         <v>104</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -5343,7 +5349,7 @@
         <v>106</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -5375,7 +5381,7 @@
         <v>108</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -5407,7 +5413,7 @@
         <v>110</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -5439,7 +5445,7 @@
         <v>112</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -5471,7 +5477,7 @@
         <v>112</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -5503,7 +5509,7 @@
         <v>114</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -5535,7 +5541,7 @@
         <v>116</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -5567,7 +5573,7 @@
         <v>118</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -5599,7 +5605,7 @@
         <v>120</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K109" s="14">
         <v>18.3</v>
@@ -5643,7 +5649,7 @@
         <v>122</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -5675,7 +5681,7 @@
         <v>124</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K111" s="14">
         <v>64</v>
@@ -5719,7 +5725,7 @@
         <v>126</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -5751,7 +5757,7 @@
         <v>128</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -5783,7 +5789,7 @@
         <v>128</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -5815,7 +5821,7 @@
         <v>130</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -5847,7 +5853,7 @@
         <v>132</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -5879,7 +5885,7 @@
         <v>134</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -5911,7 +5917,7 @@
         <v>136</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -5943,7 +5949,7 @@
         <v>138</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -5975,7 +5981,7 @@
         <v>140</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -6007,7 +6013,7 @@
         <v>142</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -6039,7 +6045,7 @@
         <v>144</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K122" s="14">
         <v>42</v>
@@ -6083,7 +6089,7 @@
         <v>144</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K123" s="14">
         <v>38</v>
@@ -6127,7 +6133,7 @@
         <v>144</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K124" s="14">
         <v>44</v>
@@ -6171,7 +6177,7 @@
         <v>144</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K125" s="14">
         <v>31</v>
@@ -6215,7 +6221,7 @@
         <v>144</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K126" s="14">
         <v>38.700000000000003</v>
@@ -6259,7 +6265,7 @@
         <v>146</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K127" s="14">
         <v>44</v>
@@ -6303,7 +6309,7 @@
         <v>148</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -6335,7 +6341,7 @@
         <v>150</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -6367,7 +6373,7 @@
         <v>152</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -6399,7 +6405,7 @@
         <v>153</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -6431,7 +6437,7 @@
         <v>155</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -6463,7 +6469,7 @@
         <v>157</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -6495,7 +6501,7 @@
         <v>157</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -6527,7 +6533,7 @@
         <v>160</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -6559,7 +6565,7 @@
         <v>162</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -6591,7 +6597,7 @@
         <v>164</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -6623,7 +6629,7 @@
         <v>166</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -6655,7 +6661,7 @@
         <v>168</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -6687,7 +6693,7 @@
         <v>170</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -6719,7 +6725,7 @@
         <v>172</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -6751,7 +6757,7 @@
         <v>174</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -6783,7 +6789,7 @@
         <v>176</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -6815,7 +6821,7 @@
         <v>178</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K144" s="14">
         <v>14.5</v>
@@ -6859,7 +6865,7 @@
         <v>180</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
@@ -6891,7 +6897,7 @@
         <v>182</v>
       </c>
       <c r="J146" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K146" s="14">
         <v>22</v>
@@ -6935,7 +6941,7 @@
         <v>182</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K147" s="14">
         <v>17.5</v>
@@ -6979,7 +6985,7 @@
         <v>182</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K148" s="14">
         <v>19</v>
@@ -7023,7 +7029,7 @@
         <v>182</v>
       </c>
       <c r="J149" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K149" s="14">
         <v>52</v>
@@ -7067,7 +7073,7 @@
         <v>183</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
@@ -7099,7 +7105,7 @@
         <v>185</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K151" s="14">
         <v>65</v>
@@ -7114,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="O151" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
@@ -7146,7 +7152,7 @@
         <v>185</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K152" s="14">
         <v>35</v>
@@ -7190,7 +7196,7 @@
         <v>185</v>
       </c>
       <c r="J153" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K153" s="14">
         <v>24</v>
@@ -7234,7 +7240,7 @@
         <v>185</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K154" s="14">
         <v>29</v>
@@ -7278,7 +7284,7 @@
         <v>185</v>
       </c>
       <c r="J155" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K155" s="14">
         <v>10</v>
@@ -7322,7 +7328,7 @@
         <v>185</v>
       </c>
       <c r="J156" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K156" s="14">
         <v>38</v>
@@ -7366,7 +7372,7 @@
         <v>185</v>
       </c>
       <c r="J157" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K157" s="14">
         <v>33</v>
@@ -7410,7 +7416,7 @@
         <v>185</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K158" s="14">
         <v>60</v>
@@ -7454,7 +7460,7 @@
         <v>185</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K159" s="14">
         <v>23</v>
@@ -7498,7 +7504,7 @@
         <v>185</v>
       </c>
       <c r="J160" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K160" s="14">
         <v>31</v>
@@ -7542,7 +7548,7 @@
         <v>185</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K161" s="14">
         <v>14.5</v>
@@ -7586,7 +7592,7 @@
         <v>187</v>
       </c>
       <c r="J162" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K162" s="14">
         <v>30</v>
@@ -7630,7 +7636,7 @@
         <v>189</v>
       </c>
       <c r="J163" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -7662,7 +7668,7 @@
         <v>189</v>
       </c>
       <c r="J164" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
@@ -7694,7 +7700,7 @@
         <v>192</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K165" s="14">
         <v>11</v>
@@ -7738,7 +7744,7 @@
         <v>192</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K166" s="14">
         <v>18</v>
@@ -7782,7 +7788,7 @@
         <v>192</v>
       </c>
       <c r="J167" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K167" s="14">
         <v>62</v>
@@ -7826,7 +7832,7 @@
         <v>192</v>
       </c>
       <c r="J168" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K168" s="14">
         <v>57</v>
@@ -7870,7 +7876,7 @@
         <v>192</v>
       </c>
       <c r="J169" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K169" s="14">
         <v>109</v>
@@ -7914,7 +7920,7 @@
         <v>194</v>
       </c>
       <c r="J170" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K170" s="14">
         <v>33</v>
@@ -7958,7 +7964,7 @@
         <v>194</v>
       </c>
       <c r="J171" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K171" s="14">
         <v>33</v>
@@ -8002,7 +8008,7 @@
         <v>196</v>
       </c>
       <c r="J172" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K172" s="14">
         <v>20</v>
@@ -8046,7 +8052,7 @@
         <v>194</v>
       </c>
       <c r="J173" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -8078,7 +8084,7 @@
         <v>199</v>
       </c>
       <c r="J174" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K174" s="14">
         <v>33</v>
@@ -8122,7 +8128,7 @@
         <v>199</v>
       </c>
       <c r="J175" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K175" s="14">
         <v>169</v>
@@ -8166,7 +8172,7 @@
         <v>201</v>
       </c>
       <c r="J176" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K176" s="14">
         <v>10.5</v>
@@ -8210,7 +8216,7 @@
         <v>201</v>
       </c>
       <c r="J177" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K177" s="14">
         <v>77</v>
@@ -8254,7 +8260,7 @@
         <v>203</v>
       </c>
       <c r="J178" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
@@ -8286,7 +8292,7 @@
         <v>205</v>
       </c>
       <c r="J179" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K179" s="14">
         <v>49</v>
@@ -8330,7 +8336,7 @@
         <v>207</v>
       </c>
       <c r="J180" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
@@ -8362,7 +8368,7 @@
         <v>209</v>
       </c>
       <c r="J181" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.2">
@@ -8394,7 +8400,7 @@
         <v>211</v>
       </c>
       <c r="J182" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K182" s="14">
         <v>23</v>
@@ -8438,7 +8444,7 @@
         <v>211</v>
       </c>
       <c r="J183" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K183" s="14">
         <v>161</v>
@@ -8453,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="O183" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
@@ -8485,7 +8491,7 @@
         <v>211</v>
       </c>
       <c r="J184" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K184" s="14">
         <v>102</v>
@@ -8500,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="O184" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
@@ -8532,7 +8538,7 @@
         <v>211</v>
       </c>
       <c r="J185" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K185" s="14">
         <v>106</v>
@@ -8547,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="O185" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
@@ -8579,7 +8585,7 @@
         <v>211</v>
       </c>
       <c r="J186" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K186" s="14">
         <v>67</v>
@@ -8594,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="O186" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -8626,7 +8632,7 @@
         <v>213</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K187" s="5">
         <v>220</v>
@@ -8670,7 +8676,7 @@
         <v>213</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K188" s="5">
         <v>72</v>
@@ -8714,7 +8720,7 @@
         <v>213</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K189" s="5">
         <v>47</v>
@@ -8758,7 +8764,7 @@
         <v>213</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K190" s="5">
         <v>37</v>
@@ -8802,7 +8808,7 @@
         <v>213</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K191" s="5">
         <v>78</v>
@@ -8846,7 +8852,7 @@
         <v>215</v>
       </c>
       <c r="J192" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -8878,7 +8884,7 @@
         <v>217</v>
       </c>
       <c r="J193" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
@@ -8910,7 +8916,7 @@
         <v>219</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
@@ -8942,7 +8948,7 @@
         <v>219</v>
       </c>
       <c r="J195" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
@@ -8974,7 +8980,7 @@
         <v>222</v>
       </c>
       <c r="J196" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
@@ -9006,7 +9012,7 @@
         <v>224</v>
       </c>
       <c r="J197" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
@@ -9038,7 +9044,7 @@
         <v>226</v>
       </c>
       <c r="J198" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
@@ -9070,7 +9076,7 @@
         <v>228</v>
       </c>
       <c r="J199" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
@@ -9102,7 +9108,7 @@
         <v>230</v>
       </c>
       <c r="J200" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
@@ -9134,7 +9140,7 @@
         <v>232</v>
       </c>
       <c r="J201" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -9166,7 +9172,7 @@
         <v>234</v>
       </c>
       <c r="J202" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
@@ -9198,7 +9204,7 @@
         <v>236</v>
       </c>
       <c r="J203" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
